--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2876664.031827767</v>
+        <v>2980843.666278839</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>355.0699911427657</v>
       </c>
       <c r="D2" t="n">
-        <v>78.96122915361056</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>28.33530928504436</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>10.33603176554395</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>74.22494303712035</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>41.84212836818449</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>62.95433966001221</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.0440125622328</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>92.47445699814351</v>
+        <v>36.32707961669607</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>258.2317318494241</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>70.93055469222875</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.73384166348</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>22.65115569189036</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>59.96838802184554</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>158.3910158645298</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.74993283584276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>67.00771475394413</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>80.3196045412455</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470136</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>161.740039342104</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2998,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>168.3381167077338</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>29.6738200803744</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>40.9610540507643</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.4765410832878</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>83.44729448253379</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444121</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>125.2700607443044</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>104.8913819999783</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855438</v>
+        <v>1590.807527238423</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.909787855438</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
         <v>1232.150970528558</v>
@@ -4328,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,13 +4412,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4425,34 +4427,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>561.0764108006842</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="C4" t="n">
-        <v>392.1402278727774</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D4" t="n">
-        <v>242.0235884604416</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709432</v>
+        <v>1124.468288241204</v>
       </c>
       <c r="W4" t="n">
-        <v>1191.507005672471</v>
+        <v>835.0511182042437</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5174547744541</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="Y4" t="n">
-        <v>742.724875630924</v>
+        <v>607.0615673062264</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796261</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796261</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>563.5047572728756</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>563.5047572728756</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>556.5592565236722</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>141.4868063686686</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.0847133907091</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1863.704306007672</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1672.018421834499</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1672.018421834499</v>
       </c>
       <c r="U7" t="n">
-        <v>1333.834836463796</v>
+        <v>1672.018421834499</v>
       </c>
       <c r="V7" t="n">
-        <v>1079.150348257909</v>
+        <v>1417.333933628612</v>
       </c>
       <c r="W7" t="n">
-        <v>789.7331782209488</v>
+        <v>1127.916763591651</v>
       </c>
       <c r="X7" t="n">
-        <v>789.7331782209488</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y7" t="n">
-        <v>789.7331782209488</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4811,16 +4813,16 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3121.906610713899</v>
+        <v>2719.112908979479</v>
       </c>
       <c r="W8" t="n">
-        <v>3121.906610713899</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4874,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,10 +4886,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1163.171458061136</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>908.4869698552495</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W10" t="n">
-        <v>619.069799818289</v>
+        <v>1574.131181731201</v>
       </c>
       <c r="X10" t="n">
-        <v>619.069799818289</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.2772206747588</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694706</v>
@@ -5066,16 +5068,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5115,25 +5117,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1804.131916132772</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2356.041646372059</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876714</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433377</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310021</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310021</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330918</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359458</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614411</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317911</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5294,19 +5296,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397185</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612593</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
@@ -5525,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5832,16 +5834,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3194.624135499465</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>3025.687952571559</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159223</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.148592041074</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4403.547127064016</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>4114.471900408214</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>4114.471900408214</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3825.054730371253</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>3597.065179473235</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.272600329705</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5980,13 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>94.56320294380271</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289434</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>2716.927329289434</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>3314.305816915985</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>3941.903780470592</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6242,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2726.91413360155</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>3324.292621228102</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>3951.890584782709</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O27" t="n">
-        <v>4503.800315021996</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.0191461778176</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2216.543602719426</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1996.942137742368</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1707.866911086565</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1707.866911086565</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1418.449741049605</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1190.460190151587</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>969.6676110080573</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3025.224490384403</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4453.748946926012</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4234.147481948953</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3945.072255293151</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3945.072255293151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3655.65508525619</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3427.665534358173</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3206.872955214643</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6691,16 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>2878.328163333972</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>3475.706650960524</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3175.341129796739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3006.404946868832</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3577.782173770509</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3356.989594626978</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362678</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6962,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1057.955258982919</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>889.0190760550122</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>738.9024366426764</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>590.9893430602833</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F37" t="n">
-        <v>444.0993955623729</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G37" t="n">
-        <v>276.9032962772529</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>135.191465119451</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1688.385853854706</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.396302956689</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1239.603723813159</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273898</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273898</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684976</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>576.8388927589091</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C40" t="n">
-        <v>407.9027098310022</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310022</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310022</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7363,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192588</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111713</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615664</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334537</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673286</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.54608366783</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694715</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740623</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590556</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118211</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289432</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.25293550519</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3212.25293550519</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>3839.850899059797</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950411</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445479</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445479</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301204</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022978</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566163</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.23547033442</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606219</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400686</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635732</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2940.578503903499</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2856.288307456495</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2856.288307456495</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>2708.375213874102</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376191</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218389</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650994</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650994</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.185983673935</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4115.110757018133</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3860.426268812246</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3571.009098775286</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3343.019547877268</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3122.226968733738</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362669</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565533</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310022</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310022</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7849,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.5956654067374</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>67.31863952450738</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.834720516252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>114.0185712477005</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>145.3900508477917</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28624665954055</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>12.68816929391076</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>40.30478226780123</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.35543909864946</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>83.79952661609404</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>54.56191943763292</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>43.72409101823403</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="16">
@@ -26314,13 +26316,13 @@
         <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.504384641</v>
-      </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365057</v>
@@ -26332,13 +26334,13 @@
         <v>686074.609736506</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.6097365053</v>
-      </c>
       <c r="K2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365057</v>
@@ -26350,10 +26352,10 @@
         <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365054</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26377,7 @@
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184286</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184266</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
@@ -26448,16 +26450,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184285</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184285</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184282</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26522,7 +26524,7 @@
         <v>-831587.0247875392</v>
       </c>
       <c r="C6" t="n">
-        <v>497157.7209400535</v>
+        <v>497157.7209400537</v>
       </c>
       <c r="D6" t="n">
         <v>497157.7209400537</v>
@@ -26531,37 +26533,37 @@
         <v>245932.8099934005</v>
       </c>
       <c r="F6" t="n">
-        <v>571345.2718007558</v>
+        <v>571345.2718007556</v>
       </c>
       <c r="G6" t="n">
-        <v>571345.2718007561</v>
+        <v>571345.271800756</v>
       </c>
       <c r="H6" t="n">
         <v>571345.2718007562</v>
       </c>
       <c r="I6" t="n">
+        <v>571345.2718007556</v>
+      </c>
+      <c r="J6" t="n">
+        <v>353814.0694034784</v>
+      </c>
+      <c r="K6" t="n">
         <v>571345.2718007559</v>
-      </c>
-      <c r="J6" t="n">
-        <v>353814.0694034781</v>
-      </c>
-      <c r="K6" t="n">
-        <v>571345.2718007561</v>
       </c>
       <c r="L6" t="n">
         <v>571345.2718007559</v>
       </c>
       <c r="M6" t="n">
-        <v>486290.2438652441</v>
+        <v>486290.243865244</v>
       </c>
       <c r="N6" t="n">
+        <v>571345.2718007559</v>
+      </c>
+      <c r="O6" t="n">
+        <v>571345.2718007561</v>
+      </c>
+      <c r="P6" t="n">
         <v>571345.2718007558</v>
-      </c>
-      <c r="O6" t="n">
-        <v>571345.2718007556</v>
-      </c>
-      <c r="P6" t="n">
-        <v>571345.2718007555</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26969,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>10.20290062824182</v>
       </c>
       <c r="D2" t="n">
-        <v>275.7218124670724</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>118.0986533615248</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>241.801611558284</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>220.3828213502001</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>344.3958102878691</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>25.97781301003512</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>7.16782564338007</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>235.2778014719914</v>
+        <v>291.4251788534388</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>27.98010635618874</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>215.5924436443622</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.169471064289421e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>560.1612034965808</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>295.9743940159489</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>687.9583686879457</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32315,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>342.8454457931495</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32470,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32552,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>100.2764607028594</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>434.1786358382025</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>434.178635838203</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,28 +33259,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>489.2891832783074</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>399.0581126127094</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33415,13 +33417,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,13 +33505,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>565.6398038246471</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>161.7871425275307</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>355.4083096598243</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33973,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>232.153703594059</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>537.262354434964</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34447,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>194.5189324111259</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>418.0271695745625</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>161.9999866016186</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>545.8243347659273</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35963,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>205.0040068187905</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36200,19 +36202,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>291.5823913937581</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>291.5823913937585</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9474711949741</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>265.0837051983791</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>434.2980917413138</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>23.94570355317167</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>90.01966967204068</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462686</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>394.6661099905195</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>55.9645526312517</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2980843.666278839</v>
+        <v>2976831.056264847</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>355.0699911427657</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>28.93420885558212</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>43.08809953848933</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>10.33603176554395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>351.0964192978454</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.84212836818449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>62.95433966001221</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>47.41254713315973</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>26.36573169766347</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>36.32707961669607</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>45.10683729225661</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>70.93055469222875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.73384166348</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>60.11729550773704</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>158.3910158645298</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8253826161909023</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588585</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>26.13627195705825</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>76.17049831699812</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>71.0584634348817</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>164.5981994227929</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.2700607443044</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.807527238423</v>
+        <v>921.770455879627</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392153</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392153</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392153</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539436</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2367.546699278356</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.407367302545</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>607.0615673062264</v>
+        <v>890.9213886294034</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>721.9852057014965</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>571.8685662891608</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>423.9554727067676</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1124.468288241204</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W4" t="n">
-        <v>835.0511182042437</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X4" t="n">
-        <v>607.0615673062264</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="Y4" t="n">
-        <v>607.0615673062264</v>
+        <v>1072.569853459643</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2016.438433460089</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1647.475916519678</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1289.210217912927</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.243802269322</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>2403.038273524211</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,40 +4652,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1346335501037</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1863.704306007672</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1672.018421834499</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="T7" t="n">
-        <v>1672.018421834499</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="U7" t="n">
-        <v>1672.018421834499</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="V7" t="n">
-        <v>1417.333933628612</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>1127.916763591651</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>899.9272126936338</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>679.1346335501037</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.90978785544</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>942.947270915028</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2719.112908979479</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.344253709365</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.7005868594143</v>
+        <v>725.9304417640999</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>556.994258836193</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>406.8776194238573</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>258.9645258414641</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>112.0745783435538</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="W10" t="n">
-        <v>1574.131181731201</v>
+        <v>1356.361036635887</v>
       </c>
       <c r="X10" t="n">
-        <v>1346.141630833184</v>
+        <v>1128.37148573787</v>
       </c>
       <c r="Y10" t="n">
-        <v>1125.349051689654</v>
+        <v>907.5789065943396</v>
       </c>
     </row>
     <row r="11">
@@ -5020,73 +5020,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.131916132772</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.041646372059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,16 +5533,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,55 +5886,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>94.65038286230612</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5943,19 +5943,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>94.56320294380271</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8426071208994</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>337.952659622989</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>170.756560337869</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,52 +6925,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E37" t="n">
-        <v>113.9333885650331</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,34 +7192,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7268,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7645,10 +7645,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7742,13 +7742,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>226.0671788815071</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>67.31863952450738</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>114.1584408891656</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>64.12421452922574</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>75.37549921168747</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.56191943763292</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.609736506</v>
-      </c>
       <c r="I2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319395</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184268</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831587.0247875392</v>
+        <v>-831587.0247875388</v>
       </c>
       <c r="C6" t="n">
-        <v>497157.7209400537</v>
+        <v>497157.7209400533</v>
       </c>
       <c r="D6" t="n">
-        <v>497157.7209400537</v>
+        <v>497157.7209400533</v>
       </c>
       <c r="E6" t="n">
-        <v>245932.8099934005</v>
+        <v>245585.4307390441</v>
       </c>
       <c r="F6" t="n">
-        <v>571345.2718007556</v>
+        <v>570997.892546399</v>
       </c>
       <c r="G6" t="n">
-        <v>571345.271800756</v>
+        <v>570997.8925463988</v>
       </c>
       <c r="H6" t="n">
-        <v>571345.2718007562</v>
+        <v>570997.892546399</v>
       </c>
       <c r="I6" t="n">
-        <v>571345.2718007556</v>
+        <v>570997.892546399</v>
       </c>
       <c r="J6" t="n">
-        <v>353814.0694034784</v>
+        <v>353466.6901491215</v>
       </c>
       <c r="K6" t="n">
-        <v>571345.2718007559</v>
+        <v>570997.8925463989</v>
       </c>
       <c r="L6" t="n">
-        <v>571345.2718007559</v>
+        <v>570997.8925463989</v>
       </c>
       <c r="M6" t="n">
-        <v>486290.243865244</v>
+        <v>485942.8646108871</v>
       </c>
       <c r="N6" t="n">
-        <v>571345.2718007559</v>
+        <v>570997.8925463988</v>
       </c>
       <c r="O6" t="n">
-        <v>571345.2718007561</v>
+        <v>570997.8925463989</v>
       </c>
       <c r="P6" t="n">
-        <v>571345.2718007558</v>
+        <v>570997.8925463989</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022934</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.20290062824182</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>377.9418368861293</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>102.3329484844419</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>241.801611558284</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>30.83395077441634</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>344.3958102878691</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>25.97781301003512</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>142.3564781982822</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>328.3173099230195</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>291.4251788534388</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>120.9189709667716</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>215.5924436443622</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.169471064289421e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O9" t="n">
         <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987471</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>295.9743940159489</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32235,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>100.2764607028594</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>434.178635838203</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127256</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>161.9999866016186</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>439.1903400640646</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7540807028594299</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>291.5823913937585</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2976831.056264847</v>
+        <v>2978591.586567631</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>370.064896548357</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.93420885558212</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>43.08809953848933</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>171.7647334826869</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>351.8998908890637</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>351.0964192978454</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>47.41254713315973</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>26.36573169766347</v>
+        <v>96.42217904608263</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>45.10683729225661</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624886</v>
       </c>
       <c r="U13" t="n">
-        <v>60.11729550773704</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>219.3987923774532</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571659</v>
+        <v>1.799772605717012</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>212.4287627768751</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2845,7 +2845,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>76.17049831699812</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>40.37234576591526</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>71.0584634348817</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>176.1811323375794</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.770455879627</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392153</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>552.8079389392153</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>552.8079389392153</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4327,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>890.9213886294034</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>721.9852057014965</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>571.8685662891608</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>423.9554727067676</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640134</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W4" t="n">
-        <v>1293.362432603173</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X4" t="n">
-        <v>1293.362432603173</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1072.569853459643</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2016.438433460089</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1647.475916519678</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1289.210217912927</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4567,13 +4567,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4582,7 +4582,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4591,10 +4591,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
         <v>3009.337405520489</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1879.403086337827</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1879.403086337827</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1879.403086337827</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1624.71859813194</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.90978785544</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>942.947270915028</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450756</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919561</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919561</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>725.9304417640999</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>556.994258836193</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>406.8776194238573</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>258.9645258414641</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>112.0745783435538</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218346</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218346</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672848</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1356.361036635887</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1128.37148573787</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>907.5789065943396</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,31 +5059,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,7 +5217,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.7822433412</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2227.361618603203</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.286391947401</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741514</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704553</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,13 +5691,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6013,25 +6013,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6156,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6165,7 +6165,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
@@ -6174,25 +6174,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797191</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311994</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032925</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7557007032925</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8426071208994</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>337.952659622989</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>170.756560337869</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.605706616408</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.188536579448</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614391</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372933</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>853.594109445026</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326902</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487568</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.378057281681</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346703</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203173</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7168,58 +7168,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7596,10 +7596,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
         <v>1882.204779583153</v>
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>125.5054897610394</v>
       </c>
       <c r="U13" t="n">
-        <v>226.0671788815071</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038532</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>6.310863011583962</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405073</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038532</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>39.70888054695294</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>64.12421452922574</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>211.7652975579127</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>75.37549921168747</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>110.0033420516648</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862643</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
   </sheetData>
@@ -26322,37 +26322,37 @@
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26368,16 +26368,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319395</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184265</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184265</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184268</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26478,19 +26478,19 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831587.0247875388</v>
+        <v>-831587.0247875389</v>
       </c>
       <c r="C6" t="n">
-        <v>497157.7209400533</v>
+        <v>497157.7209400536</v>
       </c>
       <c r="D6" t="n">
-        <v>497157.7209400533</v>
+        <v>497157.7209400535</v>
       </c>
       <c r="E6" t="n">
-        <v>245585.4307390441</v>
+        <v>245898.0720679646</v>
       </c>
       <c r="F6" t="n">
-        <v>570997.892546399</v>
+        <v>571310.5338753199</v>
       </c>
       <c r="G6" t="n">
-        <v>570997.8925463988</v>
+        <v>571310.5338753203</v>
       </c>
       <c r="H6" t="n">
-        <v>570997.892546399</v>
+        <v>571310.5338753202</v>
       </c>
       <c r="I6" t="n">
-        <v>570997.892546399</v>
+        <v>571310.5338753202</v>
       </c>
       <c r="J6" t="n">
-        <v>353466.6901491215</v>
+        <v>353779.331478043</v>
       </c>
       <c r="K6" t="n">
-        <v>570997.8925463989</v>
+        <v>571310.5338753201</v>
       </c>
       <c r="L6" t="n">
-        <v>570997.8925463989</v>
+        <v>571310.5338753202</v>
       </c>
       <c r="M6" t="n">
-        <v>485942.8646108871</v>
+        <v>486255.505939808</v>
       </c>
       <c r="N6" t="n">
-        <v>570997.8925463988</v>
+        <v>571310.53387532</v>
       </c>
       <c r="O6" t="n">
-        <v>570997.8925463989</v>
+        <v>571310.5338753202</v>
       </c>
       <c r="P6" t="n">
-        <v>570997.8925463989</v>
+        <v>571310.5338753202</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,13 +26807,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483759</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483752</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022934</v>
+        <v>831.4014554022918</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12.66894511512362</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>377.9418368861293</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>102.3329484844419</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>114.447104722926</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>30.83395077441691</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>30.83395077441634</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>142.3564781982822</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>328.3173099230195</v>
+        <v>258.2608625746003</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>120.9189709667716</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>24.68204843992096</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-9.092207747706317e-13</v>
+        <v>-9.812248471774268e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.761872057682752e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987471</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>248.031996115403</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32162,31 +32162,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32882,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127256</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410441</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36527,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
